--- a/Hertz200/PCB_DESIGN/HERTZ200/Hertz200_BOM.xlsx
+++ b/Hertz200/PCB_DESIGN/HERTZ200/Hertz200_BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView windowWidth="19815" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="242">
   <si>
     <t>QUANTITY</t>
   </si>
@@ -64,6 +64,9 @@
     <t>0603</t>
   </si>
   <si>
+    <t>SMT</t>
+  </si>
+  <si>
     <t>C2, C31</t>
   </si>
   <si>
@@ -181,6 +184,9 @@
     <t>BOURNS</t>
   </si>
   <si>
+    <t>RESISTOR</t>
+  </si>
+  <si>
     <t>R2</t>
   </si>
   <si>
@@ -223,9 +229,6 @@
     <t>SFR03EZPF22R0</t>
   </si>
   <si>
-    <t>Resistor_SMD:R_0603_1608Metric</t>
-  </si>
-  <si>
     <t>R9, R10</t>
   </si>
   <si>
@@ -262,9 +265,6 @@
     <t>ESR10EZPJ515</t>
   </si>
   <si>
-    <t>Resistor_SMD:R_0805_1608Metric</t>
-  </si>
-  <si>
     <t>R16</t>
   </si>
   <si>
@@ -274,9 +274,6 @@
     <t>CMP0805AFX-3300ELF</t>
   </si>
   <si>
-    <t>Resistor_SMD:R_0805_2012Metric</t>
-  </si>
-  <si>
     <t>R24</t>
   </si>
   <si>
@@ -370,9 +367,6 @@
     <t>CYNTEC</t>
   </si>
   <si>
-    <t>Resistor_SMD:R_2512_6332Metric</t>
-  </si>
-  <si>
     <t>R47</t>
   </si>
   <si>
@@ -418,9 +412,6 @@
     <t>LED</t>
   </si>
   <si>
-    <t>LED_SMD:LED_0805_2012Metric</t>
-  </si>
-  <si>
     <t>D2</t>
   </si>
   <si>
@@ -433,9 +424,6 @@
     <t>LXES15AAA1-153</t>
   </si>
   <si>
-    <t>Diode_SMD:D_0402_1005Metric</t>
-  </si>
-  <si>
     <t>D4</t>
   </si>
   <si>
@@ -445,7 +433,7 @@
     <t>STMicroelectronics</t>
   </si>
   <si>
-    <t>ESDA6V1W5:SOT65P210X110-5N</t>
+    <t>ESD</t>
   </si>
   <si>
     <t>D5</t>
@@ -460,12 +448,6 @@
     <t>D6</t>
   </si>
   <si>
-    <t>ESD</t>
-  </si>
-  <si>
-    <t>Diode_SMD:D_0603_1608Metric</t>
-  </si>
-  <si>
     <t>D7, D9</t>
   </si>
   <si>
@@ -475,9 +457,6 @@
     <t>ONSEMI</t>
   </si>
   <si>
-    <t>ESD9L5:DIOM1006X40N</t>
-  </si>
-  <si>
     <t>D10</t>
   </si>
   <si>
@@ -487,9 +466,6 @@
     <t xml:space="preserve">ams OSRAM </t>
   </si>
   <si>
-    <t>LED_SMD:LED_0603_1608Metric</t>
-  </si>
-  <si>
     <t>D11, D12</t>
   </si>
   <si>
@@ -550,6 +526,9 @@
     <t>CONNECTOR STRAIGHT</t>
   </si>
   <si>
+    <t>PTH</t>
+  </si>
+  <si>
     <t>J2</t>
   </si>
   <si>
@@ -752,6 +731,15 @@
   </si>
   <si>
     <t>CAPACITOR  POLARIZED</t>
+  </si>
+  <si>
+    <t>BT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JST XH 2.54mm 2-Pin </t>
+  </si>
+  <si>
+    <t>FEMALE BATTERY CONNECTOR</t>
   </si>
 </sst>
 </file>
@@ -1379,7 +1367,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1393,6 +1381,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1714,16 +1705,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:K81"/>
+  <dimension ref="B1:K84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" topLeftCell="C63" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="23.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="37.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="26.7142857142857" customWidth="1"/>
     <col min="4" max="4" width="26.5714285714286" customWidth="1"/>
     <col min="5" max="5" width="28.5714285714286" customWidth="1"/>
     <col min="6" max="6" width="31.1428571428571" customWidth="1"/>
@@ -1761,11 +1752,11 @@
       <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:9">
       <c r="B2" s="3">
         <v>16</v>
       </c>
@@ -1787,120 +1778,138 @@
       <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="2:8">
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
       <c r="B3" s="3">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="2:8">
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="3">
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="2:8">
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="3">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="2:8">
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>32</v>
+      <c r="I7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:8">
@@ -1909,73 +1918,82 @@
       <c r="D8" s="3"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:9">
       <c r="B9" s="3">
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H9">
         <v>1206</v>
       </c>
-    </row>
-    <row r="10" spans="2:8">
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
       <c r="B10" s="3">
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="2:8">
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
       <c r="B11" s="3">
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:8">
@@ -1984,233 +2002,293 @@
       <c r="D12" s="3"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:9">
       <c r="B13" s="3">
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
       <c r="B14" s="3">
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
+        <v>45</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17" s="3">
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="G17" t="s">
+        <v>56</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="2:8">
+      <c r="I17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18" s="3">
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="G18" t="s">
         <v>56</v>
       </c>
-      <c r="E18" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" t="s">
-        <v>54</v>
-      </c>
       <c r="H18" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
+        <v>45</v>
+      </c>
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19" s="3">
         <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="G19" t="s">
+        <v>56</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="2:8">
+      <c r="I19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
       <c r="B20" s="3">
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="G20" t="s">
+        <v>56</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="2:8">
+      <c r="I20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
       <c r="B21" s="3">
         <v>3</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
+        <v>63</v>
+      </c>
+      <c r="G21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
       <c r="B22" s="3">
         <v>2</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
+        <v>55</v>
+      </c>
+      <c r="G22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
       <c r="B23" s="3">
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
+        <v>55</v>
+      </c>
+      <c r="G23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
       <c r="B24" s="3">
         <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
+        <v>63</v>
+      </c>
+      <c r="G24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
       <c r="B25" s="3">
         <v>2</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
+        <v>63</v>
+      </c>
+      <c r="G25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
       <c r="B26" s="3">
         <v>1</v>
       </c>
@@ -2224,390 +2302,496 @@
         <v>85</v>
       </c>
       <c r="F26" t="s">
-        <v>54</v>
-      </c>
-      <c r="H26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="3">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="F27" t="s">
-        <v>61</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
+        <v>63</v>
+      </c>
+      <c r="G27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
       <c r="B28" s="3">
         <v>3</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" t="s">
         <v>91</v>
       </c>
-      <c r="E28" t="s">
-        <v>92</v>
-      </c>
       <c r="F28" t="s">
-        <v>61</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
+        <v>63</v>
+      </c>
+      <c r="G28" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
       <c r="B29" s="3">
         <v>7</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" t="s">
         <v>94</v>
       </c>
-      <c r="E29" t="s">
-        <v>95</v>
-      </c>
       <c r="F29" t="s">
-        <v>54</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
+        <v>55</v>
+      </c>
+      <c r="G29" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
       <c r="B30" s="3">
         <v>2</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="F30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F30" t="s">
-        <v>61</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="3">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="F31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" t="s">
         <v>103</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" t="s">
+        <v>56</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F32" t="s">
-        <v>61</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="3">
-        <v>1</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="F33" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="3">
-        <v>1</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>110</v>
-      </c>
       <c r="F34" t="s">
-        <v>65</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8">
+        <v>67</v>
+      </c>
+      <c r="G34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
       <c r="B35" s="3">
         <v>3</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="F35" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F35" t="s">
-        <v>61</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="3">
-        <v>1</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="F36" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="3">
+        <v>2512</v>
+      </c>
+      <c r="I36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="B37" s="3">
-        <v>1</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="E37" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="F37" t="s">
         <v>120</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="G37" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F37" t="s">
+      <c r="D38" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38" s="3">
-        <v>1</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="E38" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="F38" t="s">
+        <v>120</v>
+      </c>
+      <c r="G38" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="3">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="D39" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F38" t="s">
-        <v>122</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="3">
-        <v>1</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="E39" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="F39" t="s">
+        <v>120</v>
+      </c>
+      <c r="G39" t="s">
+        <v>56</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="8">
+        <v>1</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="D42" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F39" t="s">
-        <v>122</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="B42" s="8">
-        <v>1</v>
-      </c>
-      <c r="C42" s="8" t="s">
+      <c r="E42" t="s">
         <v>129</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="F42" t="s">
         <v>130</v>
       </c>
-      <c r="E42" t="s">
+      <c r="G42" t="s">
         <v>131</v>
       </c>
-      <c r="F42" t="s">
+      <c r="H42" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="8">
+        <v>1</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="G42" t="s">
+      <c r="D43" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="E43" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43" t="s">
+        <v>130</v>
+      </c>
+      <c r="G43" t="s">
+        <v>131</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="8">
+        <v>1</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="8">
-        <v>1</v>
-      </c>
-      <c r="C43" s="8" t="s">
+      <c r="D44" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="E44" t="s">
+        <v>135</v>
+      </c>
+      <c r="F44" t="s">
+        <v>29</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="8">
+        <v>1</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E43" t="s">
+      <c r="D45" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" t="s">
+        <v>137</v>
+      </c>
+      <c r="F45" t="s">
+        <v>138</v>
+      </c>
+      <c r="G45" t="s">
+        <v>139</v>
+      </c>
+      <c r="H45" s="8"/>
+      <c r="I45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="8">
+        <v>1</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F46" t="s">
+        <v>130</v>
+      </c>
+      <c r="G46" t="s">
         <v>131</v>
       </c>
-      <c r="F43" t="s">
-        <v>132</v>
-      </c>
-      <c r="G43" t="s">
-        <v>133</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="B44" s="8">
-        <v>1</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E44" t="s">
-        <v>138</v>
-      </c>
-      <c r="F44" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44" s="8" t="s">
+      <c r="H46" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="8">
+        <v>1</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45" s="8">
-        <v>1</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E45" t="s">
-        <v>141</v>
-      </c>
-      <c r="F45" t="s">
-        <v>142</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="B46" s="8">
-        <v>1</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F46" t="s">
-        <v>132</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="B47" s="8">
-        <v>1</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>149</v>
+      <c r="H47" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="2:8">
@@ -2615,500 +2799,593 @@
         <v>2</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E48" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F48" t="s">
-        <v>152</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8">
+        <v>146</v>
+      </c>
+      <c r="G48" t="s">
+        <v>139</v>
+      </c>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="2:9">
       <c r="B49" s="8">
         <v>1</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E49" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F49" t="s">
-        <v>156</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8">
+        <v>149</v>
+      </c>
+      <c r="G49" t="s">
+        <v>131</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
       <c r="B50" s="8">
         <v>2</v>
       </c>
       <c r="C50" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F50" t="s">
+        <v>149</v>
+      </c>
+      <c r="G50" t="s">
+        <v>131</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="8">
+        <v>1</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E53" t="s">
+        <v>152</v>
+      </c>
+      <c r="F53" t="s">
+        <v>153</v>
+      </c>
+      <c r="G53" t="s">
+        <v>154</v>
+      </c>
+      <c r="H53" t="s">
+        <v>155</v>
+      </c>
+      <c r="I53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="8">
+        <v>1</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E54" t="s">
+        <v>157</v>
+      </c>
+      <c r="F54" t="s">
         <v>158</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="F50" t="s">
-        <v>156</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8">
-      <c r="B53" s="8">
-        <v>1</v>
-      </c>
-      <c r="C53" s="8" t="s">
+      <c r="G54" t="s">
         <v>159</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="H54" t="s">
         <v>160</v>
       </c>
-      <c r="E53" t="s">
-        <v>160</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="I54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="8">
+        <v>1</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="G53" t="s">
+      <c r="D55" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="H53" t="s">
+      <c r="E55" t="s">
+        <v>162</v>
+      </c>
+      <c r="F55" t="s">
+        <v>158</v>
+      </c>
+      <c r="G55" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="54" spans="2:8">
-      <c r="B54" s="8">
-        <v>1</v>
-      </c>
-      <c r="C54" s="8" t="s">
+      <c r="H55" t="s">
         <v>164</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E54" t="s">
-        <v>165</v>
-      </c>
-      <c r="F54" t="s">
-        <v>166</v>
-      </c>
-      <c r="G54" t="s">
-        <v>167</v>
-      </c>
-      <c r="H54" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8">
-      <c r="B55" s="8">
-        <v>1</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E55" t="s">
-        <v>170</v>
-      </c>
-      <c r="F55" t="s">
-        <v>166</v>
-      </c>
-      <c r="G55" t="s">
-        <v>171</v>
-      </c>
-      <c r="H55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7">
+      <c r="I55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
       <c r="B58" s="8">
         <v>2</v>
       </c>
       <c r="C58" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E58" t="s">
+        <v>167</v>
+      </c>
+      <c r="F58" t="s">
+        <v>168</v>
+      </c>
+      <c r="G58" t="s">
+        <v>169</v>
+      </c>
+      <c r="I58" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" s="8">
+        <v>1</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E59" t="s">
+        <v>172</v>
+      </c>
+      <c r="F59" t="s">
         <v>173</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="G59" t="s">
         <v>174</v>
       </c>
-      <c r="E58" t="s">
+      <c r="I59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="8">
+        <v>1</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="F58" t="s">
+      <c r="D60" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="G58" t="s">
+      <c r="I60" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" s="8">
+        <v>1</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="59" spans="2:7">
-      <c r="B59" s="8">
-        <v>1</v>
-      </c>
-      <c r="C59" s="8" t="s">
+      <c r="D61" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="E61" t="s">
+        <v>178</v>
+      </c>
+      <c r="F61" t="s">
+        <v>173</v>
+      </c>
+      <c r="G61" t="s">
         <v>179</v>
       </c>
-      <c r="E59" t="s">
-        <v>179</v>
-      </c>
-      <c r="F59" t="s">
+      <c r="I61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="8">
+        <v>1</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="G59" t="s">
+      <c r="D62" s="8" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="60" spans="2:4">
-      <c r="B60" s="8">
-        <v>1</v>
-      </c>
-      <c r="C60" s="8" t="s">
+      <c r="E62" t="s">
         <v>182</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="F62" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="61" spans="2:7">
-      <c r="B61" s="8">
-        <v>1</v>
-      </c>
-      <c r="C61" s="8" t="s">
+      <c r="G62" t="s">
         <v>184</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="I62" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63" s="8">
+        <v>1</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E61" t="s">
-        <v>185</v>
-      </c>
-      <c r="F61" t="s">
-        <v>180</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="D63" s="8" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="62" spans="2:7">
-      <c r="B62" s="8">
-        <v>1</v>
-      </c>
-      <c r="C62" s="8" t="s">
+      <c r="E63" t="s">
         <v>187</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="F63" t="s">
         <v>188</v>
       </c>
-      <c r="E62" t="s">
+      <c r="G63" t="s">
         <v>189</v>
       </c>
-      <c r="F62" t="s">
+      <c r="I63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" s="8">
+        <v>1</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="G62" t="s">
+      <c r="D66" s="8" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="63" spans="2:7">
-      <c r="B63" s="8">
-        <v>1</v>
-      </c>
-      <c r="C63" s="8" t="s">
+      <c r="E66" t="s">
         <v>192</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="F66" t="s">
         <v>193</v>
       </c>
-      <c r="E63" t="s">
+      <c r="G66" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="F63" t="s">
-        <v>195</v>
-      </c>
-      <c r="G63" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8">
-      <c r="B66" s="8">
-        <v>1</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="E66" t="s">
-        <v>199</v>
-      </c>
-      <c r="F66" t="s">
-        <v>200</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="67" spans="2:7">
+      <c r="I66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9">
       <c r="B67" s="8">
         <v>1</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E67">
         <v>744311150</v>
       </c>
       <c r="F67" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G67" t="s">
+        <v>194</v>
+      </c>
+      <c r="I67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="B70" s="8">
+        <v>1</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E70" t="s">
+        <v>200</v>
+      </c>
+      <c r="F70" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="70" spans="2:8">
-      <c r="B70" s="8">
-        <v>1</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="E70" t="s">
-        <v>207</v>
-      </c>
-      <c r="F70" t="s">
-        <v>208</v>
-      </c>
       <c r="G70" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H70" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8">
+        <v>202</v>
+      </c>
+      <c r="I70" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9">
       <c r="B71" s="8">
         <v>2</v>
       </c>
       <c r="C71" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E71" t="s">
+        <v>204</v>
+      </c>
+      <c r="F71" t="s">
+        <v>158</v>
+      </c>
+      <c r="G71" t="s">
+        <v>205</v>
+      </c>
+      <c r="H71" t="s">
+        <v>164</v>
+      </c>
+      <c r="I71" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="B72" s="8">
+        <v>1</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E72" t="s">
+        <v>207</v>
+      </c>
+      <c r="F72" t="s">
+        <v>208</v>
+      </c>
+      <c r="G72" t="s">
+        <v>209</v>
+      </c>
+      <c r="H72" t="s">
         <v>210</v>
       </c>
-      <c r="D71" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="E71" t="s">
-        <v>211</v>
-      </c>
-      <c r="F71" t="s">
-        <v>166</v>
-      </c>
-      <c r="G71" t="s">
-        <v>212</v>
-      </c>
-      <c r="H71" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8">
-      <c r="B72" s="8">
-        <v>1</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="E72" t="s">
-        <v>214</v>
-      </c>
-      <c r="F72" t="s">
-        <v>215</v>
-      </c>
-      <c r="G72" t="s">
-        <v>216</v>
-      </c>
-      <c r="H72" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7">
+      <c r="I72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9">
       <c r="B75" s="8">
         <v>2</v>
       </c>
       <c r="C75" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E75" t="s">
+        <v>212</v>
+      </c>
+      <c r="F75" t="s">
+        <v>158</v>
+      </c>
+      <c r="G75" t="s">
+        <v>213</v>
+      </c>
+      <c r="I75" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="B76" s="8">
+        <v>1</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E76" t="s">
+        <v>216</v>
+      </c>
+      <c r="F76" t="s">
+        <v>138</v>
+      </c>
+      <c r="G76" t="s">
+        <v>217</v>
+      </c>
+      <c r="H76" t="s">
         <v>218</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="I76" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="B77" s="8">
+        <v>1</v>
+      </c>
+      <c r="C77" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="E75" t="s">
-        <v>219</v>
-      </c>
-      <c r="F75" t="s">
-        <v>166</v>
-      </c>
-      <c r="G75" t="s">
+      <c r="D77" s="8" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="76" spans="2:8">
-      <c r="B76" s="8">
-        <v>1</v>
-      </c>
-      <c r="C76" s="8" t="s">
+      <c r="E77" t="s">
+        <v>220</v>
+      </c>
+      <c r="F77" t="s">
         <v>221</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="G77" t="s">
         <v>222</v>
       </c>
-      <c r="E76" t="s">
+      <c r="H77" t="s">
         <v>223</v>
       </c>
-      <c r="F76" t="s">
-        <v>142</v>
-      </c>
-      <c r="G76" t="s">
+      <c r="I77" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9">
+      <c r="B78" s="8">
+        <v>1</v>
+      </c>
+      <c r="C78" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="H76" t="s">
+      <c r="D78" s="8" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="77" spans="2:8">
-      <c r="B77" s="8">
-        <v>1</v>
-      </c>
-      <c r="C77" s="8" t="s">
+      <c r="E78" t="s">
         <v>226</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="F78" t="s">
+        <v>158</v>
+      </c>
+      <c r="G78" t="s">
         <v>227</v>
       </c>
-      <c r="E77" t="s">
-        <v>227</v>
-      </c>
-      <c r="F77" t="s">
+      <c r="H78" t="s">
         <v>228</v>
       </c>
-      <c r="G77" t="s">
+      <c r="I78" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9">
+      <c r="B79" s="8">
+        <v>1</v>
+      </c>
+      <c r="C79" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="H77" t="s">
+      <c r="D79" s="8" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="78" spans="2:8">
-      <c r="B78" s="8">
-        <v>1</v>
-      </c>
-      <c r="C78" s="8" t="s">
+      <c r="E79" t="s">
+        <v>230</v>
+      </c>
+      <c r="F79" t="s">
+        <v>221</v>
+      </c>
+      <c r="G79" t="s">
         <v>231</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="I79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9">
+      <c r="B80" s="8">
+        <v>1</v>
+      </c>
+      <c r="C80" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="E78" t="s">
+      <c r="D80" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="F78" t="s">
-        <v>166</v>
-      </c>
-      <c r="G78" t="s">
+      <c r="E80" t="s">
+        <v>233</v>
+      </c>
+      <c r="F80" t="s">
         <v>234</v>
       </c>
-      <c r="H78" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7">
-      <c r="B79" s="8">
-        <v>1</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E79" t="s">
-        <v>237</v>
-      </c>
-      <c r="F79" t="s">
-        <v>228</v>
-      </c>
-      <c r="G79" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7">
-      <c r="B80" s="8">
-        <v>1</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="E80" t="s">
-        <v>240</v>
-      </c>
-      <c r="F80" t="s">
-        <v>241</v>
-      </c>
       <c r="G80" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7">
+        <v>163</v>
+      </c>
+      <c r="I80" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9">
       <c r="B81" s="8">
         <v>2</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E81" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G81" t="s">
-        <v>245</v>
+        <v>238</v>
+      </c>
+      <c r="I81" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9">
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>239</v>
+      </c>
+      <c r="E84" t="s">
+        <v>240</v>
+      </c>
+      <c r="G84" t="s">
+        <v>241</v>
+      </c>
+      <c r="I84" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
